--- a/Public/doc/format-ikm.xlsx
+++ b/Public/doc/format-ikm.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Bentuk Badan</t>
   </si>
   <si>
-    <t>Tahun Dikeluarkan</t>
-  </si>
-  <si>
     <t>KBLI</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>Pemasaran</t>
+  </si>
+  <si>
+    <t>Tahun Dikeluarkan Ijin</t>
+  </si>
+  <si>
+    <t>Kategori</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,63 +420,66 @@
     <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Public/doc/format-ikm.xlsx
+++ b/Public/doc/format-ikm.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Tahun Dikeluarkan Ijin</t>
-  </si>
-  <si>
-    <t>Kategori</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -420,65 +417,62 @@
     <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
         <v>17</v>
       </c>
     </row>
